--- a/PythonResources/Data/Consumption/Sympheny/base_1345_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1345_hea.xlsx
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42.72829208163084</v>
+        <v>42.72829208163083</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>51.72908982099808</v>
+        <v>51.72908982099807</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -679,7 +679,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>40.62374895300372</v>
+        <v>40.62374895300371</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -695,7 +695,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>43.29626375455653</v>
+        <v>43.29626375455652</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -703,7 +703,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>43.67344618131368</v>
+        <v>43.67344618131367</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>51.05356107688368</v>
+        <v>51.05356107688367</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>40.65159070167655</v>
+        <v>40.65159070167654</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -943,7 +943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>5.363258621710352</v>
+        <v>5.363258621710351</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>6.83550098442562</v>
+        <v>6.835500984425619</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>19.76544352491778</v>
+        <v>19.76544352491777</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>31.46938198937794</v>
+        <v>31.46938198937793</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>27.4716292581024</v>
+        <v>27.47162925810239</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>47.82333208875833</v>
+        <v>47.82333208875832</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>49.47449432057635</v>
+        <v>49.47449432057634</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>35.98179677164667</v>
+        <v>35.98179677164666</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>39.13084508206283</v>
+        <v>39.13084508206282</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>63.96802946653452</v>
+        <v>63.96802946653451</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>39.70907424134166</v>
+        <v>39.70907424134165</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>40.48629863587155</v>
+        <v>40.48629863587154</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>42.64418069353504</v>
+        <v>42.64418069353503</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>62.16681486292189</v>
+        <v>62.16681486292188</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>36.41495576678814</v>
+        <v>36.41495576678813</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>56.0551114226782</v>
+        <v>56.05511142267819</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>42.71539695592974</v>
+        <v>42.71539695592973</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>45.11037348387026</v>
+        <v>45.11037348387025</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2623,7 +2623,7 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>25.79678688636054</v>
+        <v>25.79678688636053</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>3.777656381240874</v>
+        <v>3.777656381240873</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>36.7587280951379</v>
+        <v>36.75872809513789</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2935,7 +2935,7 @@
         <v>324</v>
       </c>
       <c r="B324">
-        <v>9.16749654615781</v>
+        <v>9.167496546157809</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -3023,7 +3023,7 @@
         <v>335</v>
       </c>
       <c r="B335">
-        <v>42.69986419088069</v>
+        <v>42.69986419088068</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>43.32938078192526</v>
+        <v>43.32938078192525</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3303,7 +3303,7 @@
         <v>370</v>
       </c>
       <c r="B370">
-        <v>56.83731802486533</v>
+        <v>56.83731802486532</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -3311,7 +3311,7 @@
         <v>371</v>
       </c>
       <c r="B371">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>53.53499356122929</v>
+        <v>53.53499356122928</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>56.14156737908329</v>
+        <v>56.14156737908328</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3407,7 +3407,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>61.85322885155425</v>
+        <v>61.85322885155424</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>83.3517479635959</v>
+        <v>83.35174796359588</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3607,7 +3607,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>87.89405599180809</v>
+        <v>87.89405599180807</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -3615,7 +3615,7 @@
         <v>409</v>
       </c>
       <c r="B409">
-        <v>88.40136195973088</v>
+        <v>88.40136195973086</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -3639,7 +3639,7 @@
         <v>412</v>
       </c>
       <c r="B412">
-        <v>91.07592825855431</v>
+        <v>91.0759282585543</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -3647,7 +3647,7 @@
         <v>413</v>
       </c>
       <c r="B413">
-        <v>91.34145061958149</v>
+        <v>91.34145061958148</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -3767,7 +3767,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>81.5707552616509</v>
+        <v>81.57075526165089</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -3799,7 +3799,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>88.9948308130201</v>
+        <v>88.99483081302009</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -3839,7 +3839,7 @@
         <v>437</v>
       </c>
       <c r="B437">
-        <v>85.79977034953411</v>
+        <v>85.7997703495341</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -3919,7 +3919,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>80.2029927242184</v>
+        <v>80.20299272421839</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>71.98938379469554</v>
+        <v>71.98938379469553</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -4071,7 +4071,7 @@
         <v>466</v>
       </c>
       <c r="B466">
-        <v>60.87232008515473</v>
+        <v>60.87232008515472</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>45.62998843541682</v>
+        <v>45.62998843541681</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4119,7 +4119,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>34.89655471548371</v>
+        <v>34.8965547154837</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -4343,7 +4343,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>75.35208089229582</v>
+        <v>75.3520808922958</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -4351,7 +4351,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>77.56359495003433</v>
+        <v>77.56359495003431</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>81.04352046309914</v>
+        <v>81.04352046309913</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4391,7 +4391,7 @@
         <v>506</v>
       </c>
       <c r="B506">
-        <v>88.07751846201009</v>
+        <v>88.07751846201008</v>
       </c>
     </row>
     <row r="507" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>74.39960001664645</v>
+        <v>74.39960001664643</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4527,7 +4527,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>77.77489916890916</v>
+        <v>77.77489916890914</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -4551,7 +4551,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>77.29133195511794</v>
+        <v>77.29133195511793</v>
       </c>
     </row>
     <row r="527" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>86.37331037219437</v>
+        <v>86.37331037219435</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>93.03305665473478</v>
+        <v>93.03305665473476</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4663,7 +4663,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>87.7006291062916</v>
+        <v>87.70062910629159</v>
       </c>
     </row>
     <row r="541" spans="1:2">
@@ -4703,7 +4703,7 @@
         <v>545</v>
       </c>
       <c r="B545">
-        <v>71.4263943294271</v>
+        <v>71.42639432942708</v>
       </c>
     </row>
     <row r="546" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>90.45461765659226</v>
+        <v>90.45461765659223</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>91.06332620389188</v>
+        <v>91.06332620389186</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4791,7 +4791,7 @@
         <v>556</v>
       </c>
       <c r="B556">
-        <v>94.19420410991104</v>
+        <v>94.194204109911</v>
       </c>
     </row>
     <row r="557" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>88.78821573076385</v>
+        <v>88.78821573076384</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4839,7 +4839,7 @@
         <v>562</v>
       </c>
       <c r="B562">
-        <v>82.89866013782546</v>
+        <v>82.89866013782544</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -4855,7 +4855,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>65.02894662648859</v>
+        <v>65.02894662648858</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -4887,7 +4887,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>67.96112236829535</v>
+        <v>67.96112236829534</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -4919,7 +4919,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>73.57636346904673</v>
+        <v>73.57636346904671</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -5007,7 +5007,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>71.56618921486856</v>
+        <v>71.56618921486854</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -5031,7 +5031,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>69.61755987880927</v>
+        <v>69.61755987880926</v>
       </c>
     </row>
     <row r="587" spans="1:2">
@@ -5039,7 +5039,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>59.40491339457737</v>
+        <v>59.40491339457736</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -5047,7 +5047,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>47.82333208875833</v>
+        <v>47.82333208875832</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -5055,7 +5055,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>45.0107293307254</v>
+        <v>45.01072933072539</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -5183,7 +5183,7 @@
         <v>605</v>
       </c>
       <c r="B605">
-        <v>57.66524370908363</v>
+        <v>57.66524370908362</v>
       </c>
     </row>
     <row r="606" spans="1:2">
@@ -5247,7 +5247,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>27.49504563409144</v>
+        <v>27.49504563409143</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -5287,7 +5287,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>41.05954558749314</v>
+        <v>41.05954558749313</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -5295,7 +5295,7 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>43.20453251945553</v>
+        <v>43.20453251945552</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -5343,7 +5343,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>63.99118207858877</v>
+        <v>63.99118207858876</v>
       </c>
     </row>
     <row r="626" spans="1:2">
@@ -5383,7 +5383,7 @@
         <v>630</v>
       </c>
       <c r="B630">
-        <v>82.64632597353804</v>
+        <v>82.64632597353803</v>
       </c>
     </row>
     <row r="631" spans="1:2">
@@ -5431,7 +5431,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>59.60097791944181</v>
+        <v>59.6009779194418</v>
       </c>
     </row>
     <row r="637" spans="1:2">
@@ -5447,7 +5447,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>49.13013585014927</v>
+        <v>49.13013585014926</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -5479,7 +5479,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>83.85846778944136</v>
+        <v>83.85846778944135</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -5511,7 +5511,7 @@
         <v>646</v>
       </c>
       <c r="B646">
-        <v>83.10205143865643</v>
+        <v>83.10205143865642</v>
       </c>
     </row>
     <row r="647" spans="1:2">
@@ -5519,7 +5519,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>86.83225961873804</v>
+        <v>86.83225961873802</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -5543,7 +5543,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>88.76564926078693</v>
+        <v>88.76564926078692</v>
       </c>
     </row>
     <row r="651" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>50.68429156817038</v>
+        <v>50.68429156817037</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>82.14898442092974</v>
+        <v>82.14898442092972</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>85.16790919018025</v>
+        <v>85.16790919018024</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5767,7 +5767,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>86.55149756370047</v>
+        <v>86.55149756370045</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -5783,7 +5783,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>84.34056964803928</v>
+        <v>84.34056964803926</v>
       </c>
     </row>
     <row r="681" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>67.59214593062072</v>
+        <v>67.5921459306207</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>32.28792940035908</v>
+        <v>32.28792940035907</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>26.21974700935659</v>
+        <v>26.21974700935658</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5879,7 +5879,7 @@
         <v>692</v>
       </c>
       <c r="B692">
-        <v>59.32343964582952</v>
+        <v>59.32343964582951</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>61.16011584512017</v>
+        <v>61.16011584512016</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>62.91326679839234</v>
+        <v>62.91326679839233</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>66.878811022519</v>
+        <v>66.87881102251899</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>57.05096681204945</v>
+        <v>57.05096681204944</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6071,7 +6071,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>60.55170036885922</v>
+        <v>60.55170036885921</v>
       </c>
     </row>
     <row r="717" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>65.66872070388631</v>
+        <v>65.66872070388629</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>68.3254096693514</v>
+        <v>68.32540966935139</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6159,7 +6159,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>82.05549475959677</v>
+        <v>82.05549475959675</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -6239,7 +6239,7 @@
         <v>737</v>
       </c>
       <c r="B737">
-        <v>30.7115002833997</v>
+        <v>30.71150028339969</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -6367,7 +6367,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>72.24171795898296</v>
+        <v>72.24171795898295</v>
       </c>
     </row>
     <row r="754" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>59.85096751541994</v>
+        <v>59.85096751541993</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6463,7 +6463,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>61.29317009667242</v>
+        <v>61.29317009667241</v>
       </c>
     </row>
     <row r="766" spans="1:2">
@@ -6519,7 +6519,7 @@
         <v>772</v>
       </c>
       <c r="B772">
-        <v>67.61002326397906</v>
+        <v>67.61002326397904</v>
       </c>
     </row>
     <row r="773" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>60.70204581169249</v>
+        <v>60.70204581169248</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6623,7 +6623,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>61.39955488370649</v>
+        <v>61.39955488370648</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -6631,7 +6631,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>69.84146615234654</v>
+        <v>69.84146615234653</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -6647,7 +6647,7 @@
         <v>788</v>
       </c>
       <c r="B788">
-        <v>73.81550943659438</v>
+        <v>73.81550943659437</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -6775,7 +6775,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>79.68308470163318</v>
+        <v>79.68308470163316</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>81.59859701032373</v>
+        <v>81.59859701032372</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>817</v>
       </c>
       <c r="B817">
-        <v>84.55392536418474</v>
+        <v>84.55392536418472</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -6887,7 +6887,7 @@
         <v>818</v>
       </c>
       <c r="B818">
-        <v>84.94195141937236</v>
+        <v>84.94195141937234</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -6959,7 +6959,7 @@
         <v>827</v>
       </c>
       <c r="B827">
-        <v>86.5315687330715</v>
+        <v>86.53156873307148</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -6983,7 +6983,7 @@
         <v>830</v>
       </c>
       <c r="B830">
-        <v>66.53972783078783</v>
+        <v>66.53972783078781</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -6991,7 +6991,7 @@
         <v>831</v>
       </c>
       <c r="B831">
-        <v>77.07416631546988</v>
+        <v>77.07416631546987</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -7207,7 +7207,7 @@
         <v>858</v>
       </c>
       <c r="B858">
-        <v>73.49752735964682</v>
+        <v>73.49752735964681</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -7223,7 +7223,7 @@
         <v>860</v>
       </c>
       <c r="B860">
-        <v>86.29916339941305</v>
+        <v>86.29916339941303</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -7231,7 +7231,7 @@
         <v>861</v>
       </c>
       <c r="B861">
-        <v>86.04946687447358</v>
+        <v>86.04946687447357</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -7247,7 +7247,7 @@
         <v>863</v>
       </c>
       <c r="B863">
-        <v>89.25449175327405</v>
+        <v>89.25449175327404</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -7415,7 +7415,7 @@
         <v>884</v>
       </c>
       <c r="B884">
-        <v>72.59340320537657</v>
+        <v>72.59340320537656</v>
       </c>
     </row>
     <row r="885" spans="1:2">
@@ -7423,7 +7423,7 @@
         <v>885</v>
       </c>
       <c r="B885">
-        <v>76.92118323328866</v>
+        <v>76.92118323328864</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -7487,7 +7487,7 @@
         <v>893</v>
       </c>
       <c r="B893">
-        <v>81.88932348067578</v>
+        <v>81.88932348067577</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>77.93784666640487</v>
+        <v>77.93784666640485</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>46.7841021856652</v>
+        <v>46.78410218566519</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7575,7 +7575,7 @@
         <v>904</v>
       </c>
       <c r="B904">
-        <v>36.57790326428385</v>
+        <v>36.57790326428384</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>47.40043057997001</v>
+        <v>47.40043057997</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7647,7 +7647,7 @@
         <v>913</v>
       </c>
       <c r="B913">
-        <v>50.86013419136719</v>
+        <v>50.86013419136718</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>50.91874839909946</v>
+        <v>50.91874839909945</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7799,7 +7799,7 @@
         <v>932</v>
       </c>
       <c r="B932">
-        <v>39.69910982602718</v>
+        <v>39.69910982602717</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>39.80080547644266</v>
+        <v>39.80080547644265</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7855,7 +7855,7 @@
         <v>939</v>
       </c>
       <c r="B939">
-        <v>39.93063594656964</v>
+        <v>39.93063594656963</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>42.45309837632784</v>
+        <v>42.45309837632783</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7919,7 +7919,7 @@
         <v>947</v>
       </c>
       <c r="B947">
-        <v>20.90528471558336</v>
+        <v>20.90528471558335</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>39.14608477607322</v>
+        <v>39.14608477607321</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8135,7 +8135,7 @@
         <v>974</v>
       </c>
       <c r="B974">
-        <v>20.92342581287649</v>
+        <v>20.92342581287648</v>
       </c>
     </row>
     <row r="975" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>17.58950829127276</v>
+        <v>17.58950829127275</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8327,7 +8327,7 @@
         <v>998</v>
       </c>
       <c r="B998">
-        <v>6.185557341986354</v>
+        <v>6.185557341986353</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -8367,7 +8367,7 @@
         <v>1003</v>
       </c>
       <c r="B1003">
-        <v>23.48571659678877</v>
+        <v>23.48571659678876</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -8447,7 +8447,7 @@
         <v>1013</v>
       </c>
       <c r="B1013">
-        <v>55.67030914891585</v>
+        <v>55.67030914891584</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
@@ -8543,7 +8543,7 @@
         <v>1025</v>
       </c>
       <c r="B1025">
-        <v>48.36609965235914</v>
+        <v>48.36609965235913</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
@@ -8639,7 +8639,7 @@
         <v>1037</v>
       </c>
       <c r="B1037">
-        <v>75.29375975560221</v>
+        <v>75.2937597556022</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
@@ -8655,7 +8655,7 @@
         <v>1039</v>
       </c>
       <c r="B1039">
-        <v>76.11377252177665</v>
+        <v>76.11377252177664</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>55.14776348698267</v>
+        <v>55.14776348698266</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8695,7 +8695,7 @@
         <v>1044</v>
       </c>
       <c r="B1044">
-        <v>41.79574003661044</v>
+        <v>41.79574003661043</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
@@ -8743,7 +8743,7 @@
         <v>1050</v>
       </c>
       <c r="B1050">
-        <v>51.82814783206561</v>
+        <v>51.8281478320656</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>61.46637508052128</v>
+        <v>61.46637508052127</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -8839,7 +8839,7 @@
         <v>1062</v>
       </c>
       <c r="B1062">
-        <v>46.16982528863102</v>
+        <v>46.16982528863101</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -8959,7 +8959,7 @@
         <v>1077</v>
       </c>
       <c r="B1077">
-        <v>39.02885636060868</v>
+        <v>39.02885636060867</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
@@ -8967,7 +8967,7 @@
         <v>1078</v>
       </c>
       <c r="B1078">
-        <v>43.92783184287173</v>
+        <v>43.92783184287172</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -9063,7 +9063,7 @@
         <v>1090</v>
       </c>
       <c r="B1090">
-        <v>52.72787592075594</v>
+        <v>52.72787592075593</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -9095,7 +9095,7 @@
         <v>1094</v>
       </c>
       <c r="B1094">
-        <v>38.81725907069519</v>
+        <v>38.81725907069518</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>51.67545782092305</v>
+        <v>51.67545782092304</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9263,7 +9263,7 @@
         <v>1115</v>
       </c>
       <c r="B1115">
-        <v>59.80231772300216</v>
+        <v>59.80231772300215</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>68.09095283842233</v>
+        <v>68.09095283842231</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9375,7 +9375,7 @@
         <v>1129</v>
       </c>
       <c r="B1129">
-        <v>72.65377583934081</v>
+        <v>72.6537758393408</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>64.17317919359746</v>
+        <v>64.17317919359745</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9471,7 +9471,7 @@
         <v>1141</v>
       </c>
       <c r="B1141">
-        <v>58.76836309860493</v>
+        <v>58.76836309860492</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>64.05331313878497</v>
+        <v>64.05331313878496</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9535,7 +9535,7 @@
         <v>1149</v>
       </c>
       <c r="B1149">
-        <v>62.64833057944248</v>
+        <v>62.64833057944247</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
@@ -9607,7 +9607,7 @@
         <v>1158</v>
       </c>
       <c r="B1158">
-        <v>82.76560588627321</v>
+        <v>82.76560588627319</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -9647,7 +9647,7 @@
         <v>1163</v>
       </c>
       <c r="B1163">
-        <v>50.19808671503121</v>
+        <v>50.1980867150312</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>42.42730812492564</v>
+        <v>42.42730812492563</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>86.16669528993812</v>
+        <v>86.1666952899381</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>24.55267102013926</v>
+        <v>24.55267102013925</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>24.23272536723267</v>
+        <v>24.23272536723266</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10335,7 +10335,7 @@
         <v>1249</v>
       </c>
       <c r="B1249">
-        <v>21.13218031371497</v>
+        <v>21.13218031371496</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -10559,7 +10559,7 @@
         <v>1277</v>
       </c>
       <c r="B1277">
-        <v>24.77265014175847</v>
+        <v>24.77265014175846</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>25.01707138800203</v>
+        <v>25.01707138800202</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>22.83002876199174</v>
+        <v>22.83002876199173</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10679,7 +10679,7 @@
         <v>1292</v>
       </c>
       <c r="B1292">
-        <v>19.25239336463723</v>
+        <v>19.25239336463722</v>
       </c>
     </row>
     <row r="1293" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>21.50429261150328</v>
+        <v>21.50429261150327</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10767,7 +10767,7 @@
         <v>1303</v>
       </c>
       <c r="B1303">
-        <v>24.28149238806592</v>
+        <v>24.28149238806591</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -10959,7 +10959,7 @@
         <v>1327</v>
       </c>
       <c r="B1327">
-        <v>50.86042726240585</v>
+        <v>50.86042726240584</v>
       </c>
     </row>
     <row r="1328" spans="1:2">
@@ -11111,7 +11111,7 @@
         <v>1346</v>
       </c>
       <c r="B1346">
-        <v>5.380491198783639</v>
+        <v>5.380491198783638</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>28.12634995847184</v>
+        <v>28.12634995847183</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>7.051992560684756</v>
+        <v>7.051992560684755</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>5.797384751279402</v>
+        <v>5.797384751279401</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11655,7 +11655,7 @@
         <v>1414</v>
       </c>
       <c r="B1414">
-        <v>34.86343768811498</v>
+        <v>34.86343768811497</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>46.1138487202467</v>
+        <v>46.11384872024669</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>53.07399281741499</v>
+        <v>53.07399281741498</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11823,7 +11823,7 @@
         <v>1435</v>
       </c>
       <c r="B1435">
-        <v>49.04133532543488</v>
+        <v>49.04133532543487</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
@@ -11831,7 +11831,7 @@
         <v>1436</v>
       </c>
       <c r="B1436">
-        <v>49.42613759919723</v>
+        <v>49.42613759919722</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>59.30058010481393</v>
+        <v>59.30058010481392</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11895,7 +11895,7 @@
         <v>1444</v>
       </c>
       <c r="B1444">
-        <v>62.56451226238534</v>
+        <v>62.56451226238533</v>
       </c>
     </row>
     <row r="1445" spans="1:2">
@@ -11903,7 +11903,7 @@
         <v>1445</v>
       </c>
       <c r="B1445">
-        <v>62.77845412060812</v>
+        <v>62.77845412060811</v>
       </c>
     </row>
     <row r="1446" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>62.79633145396646</v>
+        <v>62.79633145396645</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11959,7 +11959,7 @@
         <v>1452</v>
       </c>
       <c r="B1452">
-        <v>36.9421905653399</v>
+        <v>36.94219056533989</v>
       </c>
     </row>
     <row r="1453" spans="1:2">
@@ -11967,7 +11967,7 @@
         <v>1453</v>
       </c>
       <c r="B1453">
-        <v>32.46347895251722</v>
+        <v>32.46347895251721</v>
       </c>
     </row>
     <row r="1454" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>68.76384394318877</v>
+        <v>68.76384394318876</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12087,7 +12087,7 @@
         <v>1468</v>
       </c>
       <c r="B1468">
-        <v>71.99465907339145</v>
+        <v>71.99465907339143</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
@@ -12095,7 +12095,7 @@
         <v>1469</v>
       </c>
       <c r="B1469">
-        <v>71.99202143404349</v>
+        <v>71.99202143404348</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -12127,7 +12127,7 @@
         <v>1473</v>
       </c>
       <c r="B1473">
-        <v>58.4213669888299</v>
+        <v>58.42136698882989</v>
       </c>
     </row>
     <row r="1474" spans="1:2">
@@ -12215,7 +12215,7 @@
         <v>1484</v>
       </c>
       <c r="B1484">
-        <v>56.73796694275913</v>
+        <v>56.73796694275912</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -12263,7 +12263,7 @@
         <v>1490</v>
       </c>
       <c r="B1490">
-        <v>67.33453648763739</v>
+        <v>67.33453648763738</v>
       </c>
     </row>
     <row r="1491" spans="1:2">
@@ -12479,7 +12479,7 @@
         <v>1517</v>
       </c>
       <c r="B1517">
-        <v>50.59754254072662</v>
+        <v>50.59754254072661</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -12503,7 +12503,7 @@
         <v>1520</v>
       </c>
       <c r="B1520">
-        <v>39.63287577128971</v>
+        <v>39.6328757712897</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>56.85988449484225</v>
+        <v>56.85988449484224</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>54.66390320215279</v>
+        <v>54.66390320215278</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12695,7 +12695,7 @@
         <v>1544</v>
       </c>
       <c r="B1544">
-        <v>39.084832928993</v>
+        <v>39.08483292899299</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>7.956527014409131</v>
+        <v>7.95652701440913</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12735,7 +12735,7 @@
         <v>1549</v>
       </c>
       <c r="B1549">
-        <v>2.899029407334162</v>
+        <v>2.899029407334161</v>
       </c>
     </row>
     <row r="1550" spans="1:2">
@@ -12791,7 +12791,7 @@
         <v>1556</v>
       </c>
       <c r="B1556">
-        <v>23.171720285967</v>
+        <v>23.17172028596699</v>
       </c>
     </row>
     <row r="1557" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>34.0838687252758</v>
+        <v>34.08386872527579</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -12887,7 +12887,7 @@
         <v>1568</v>
       </c>
       <c r="B1568">
-        <v>16.69819134139201</v>
+        <v>16.698191341392</v>
       </c>
     </row>
     <row r="1569" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>69.98184717986533</v>
+        <v>69.98184717986531</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>76.5774109049389</v>
+        <v>76.57741090493889</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13255,7 +13255,7 @@
         <v>1614</v>
       </c>
       <c r="B1614">
-        <v>82.70464711023165</v>
+        <v>82.70464711023163</v>
       </c>
     </row>
     <row r="1615" spans="1:2">
@@ -13263,7 +13263,7 @@
         <v>1615</v>
       </c>
       <c r="B1615">
-        <v>81.04088282375119</v>
+        <v>81.04088282375118</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13343,7 +13343,7 @@
         <v>1625</v>
       </c>
       <c r="B1625">
-        <v>32.33863069004749</v>
+        <v>32.33863069004748</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>76.01236994239983</v>
+        <v>76.01236994239981</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>16.23707336916225</v>
+        <v>16.23707336916224</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13623,7 +13623,7 @@
         <v>1660</v>
       </c>
       <c r="B1660">
-        <v>68.64192639110566</v>
+        <v>68.64192639110564</v>
       </c>
     </row>
     <row r="1661" spans="1:2">
@@ -13799,7 +13799,7 @@
         <v>1682</v>
       </c>
       <c r="B1682">
-        <v>46.99042419688279</v>
+        <v>46.99042419688278</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>8.125482468197397</v>
+        <v>8.125482468197395</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>33.41127069154801</v>
+        <v>33.411270691548</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>49.71657099851062</v>
+        <v>49.71657099851061</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>43.82848076076553</v>
+        <v>43.82848076076552</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>8.726717704011147</v>
+        <v>8.726717704011145</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14135,7 +14135,7 @@
         <v>1724</v>
       </c>
       <c r="B1724">
-        <v>37.82404132067189</v>
+        <v>37.82404132067188</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -14295,7 +14295,7 @@
         <v>1744</v>
       </c>
       <c r="B1744">
-        <v>11.80985433783237</v>
+        <v>11.80985433783236</v>
       </c>
     </row>
     <row r="1745" spans="1:2">
@@ -14311,7 +14311,7 @@
         <v>1746</v>
       </c>
       <c r="B1746">
-        <v>22.42729054066332</v>
+        <v>22.42729054066331</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
@@ -14343,7 +14343,7 @@
         <v>1750</v>
       </c>
       <c r="B1750">
-        <v>46.73047018559017</v>
+        <v>46.73047018559016</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>58.48789411460602</v>
+        <v>58.48789411460601</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14431,7 +14431,7 @@
         <v>1761</v>
       </c>
       <c r="B1761">
-        <v>32.63697700740474</v>
+        <v>32.63697700740473</v>
       </c>
     </row>
     <row r="1762" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>7.324343476912744</v>
+        <v>7.324343476912743</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14487,7 +14487,7 @@
         <v>1768</v>
       </c>
       <c r="B1768">
-        <v>8.13319023651419</v>
+        <v>8.133190236514189</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -14535,7 +14535,7 @@
         <v>1774</v>
       </c>
       <c r="B1774">
-        <v>44.53419582186205</v>
+        <v>44.53419582186204</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>57.65498622273048</v>
+        <v>57.65498622273047</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14703,7 +14703,7 @@
         <v>1795</v>
       </c>
       <c r="B1795">
-        <v>34.05602697660297</v>
+        <v>34.05602697660296</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -14743,7 +14743,7 @@
         <v>1800</v>
       </c>
       <c r="B1800">
-        <v>43.80591429078861</v>
+        <v>43.8059142907886</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>44.94947748364518</v>
+        <v>44.94947748364517</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>13.31263470277615</v>
+        <v>13.31263470277614</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15151,7 +15151,7 @@
         <v>1851</v>
       </c>
       <c r="B1851">
-        <v>48.814498341511</v>
+        <v>48.81449834151099</v>
       </c>
     </row>
     <row r="1852" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>48.48831027548092</v>
+        <v>48.48831027548091</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>29.7001121289794</v>
+        <v>29.70011212897939</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15335,7 +15335,7 @@
         <v>1874</v>
       </c>
       <c r="B1874">
-        <v>29.44895024884662</v>
+        <v>29.44895024884661</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>9.221656074102428</v>
+        <v>9.221656074102423</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15615,7 +15615,7 @@
         <v>1909</v>
       </c>
       <c r="B1909">
-        <v>3.084689910326124</v>
+        <v>3.084689910326123</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -15791,7 +15791,7 @@
         <v>1931</v>
       </c>
       <c r="B1931">
-        <v>3.477522330547791</v>
+        <v>3.47752233054779</v>
       </c>
     </row>
     <row r="1932" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>24.41888409099036</v>
+        <v>24.41888409099035</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>33.43178566425431</v>
+        <v>33.4317856642543</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -15911,7 +15911,7 @@
         <v>1946</v>
       </c>
       <c r="B1946">
-        <v>36.80210260885978</v>
+        <v>36.80210260885977</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
@@ -15951,7 +15951,7 @@
         <v>1951</v>
       </c>
       <c r="B1951">
-        <v>41.59938244070734</v>
+        <v>41.59938244070733</v>
       </c>
     </row>
     <row r="1952" spans="1:2">
@@ -16039,7 +16039,7 @@
         <v>1962</v>
       </c>
       <c r="B1962">
-        <v>35.24296468318142</v>
+        <v>35.24296468318141</v>
       </c>
     </row>
     <row r="1963" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>44.87064137424528</v>
+        <v>44.87064137424527</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>60.64577617226951</v>
+        <v>60.6457761722695</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>46.90367516943903</v>
+        <v>46.90367516943902</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16223,7 +16223,7 @@
         <v>1985</v>
       </c>
       <c r="B1985">
-        <v>30.82491877536164</v>
+        <v>30.82491877536163</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -16343,7 +16343,7 @@
         <v>2000</v>
       </c>
       <c r="B2000">
-        <v>37.93071917874462</v>
+        <v>37.93071917874461</v>
       </c>
     </row>
     <row r="2001" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>46.55960977005061</v>
+        <v>46.5596097700506</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16375,7 +16375,7 @@
         <v>2004</v>
       </c>
       <c r="B2004">
-        <v>37.01633753812122</v>
+        <v>37.01633753812121</v>
       </c>
     </row>
     <row r="2005" spans="1:2">
@@ -16391,7 +16391,7 @@
         <v>2006</v>
       </c>
       <c r="B2006">
-        <v>42.4276011959643</v>
+        <v>42.42760119596429</v>
       </c>
     </row>
     <row r="2007" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>41.35994340212102</v>
+        <v>41.35994340212101</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>34.96015113087322</v>
+        <v>34.96015113087321</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16543,7 +16543,7 @@
         <v>2025</v>
       </c>
       <c r="B2025">
-        <v>40.91681999166507</v>
+        <v>40.91681999166506</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -16559,7 +16559,7 @@
         <v>2027</v>
       </c>
       <c r="B2027">
-        <v>27.67302767587047</v>
+        <v>27.67302767587046</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>38.08370226092584</v>
+        <v>38.08370226092583</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16767,7 +16767,7 @@
         <v>2053</v>
       </c>
       <c r="B2053">
-        <v>26.45892228400812</v>
+        <v>26.45892228400811</v>
       </c>
     </row>
     <row r="2054" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>38.70032372626931</v>
+        <v>38.7003237262693</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -17047,7 +17047,7 @@
         <v>2088</v>
       </c>
       <c r="B2088">
-        <v>32.53733285425988</v>
+        <v>32.53733285425987</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>30.8896874749058</v>
+        <v>30.88968747490579</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17271,7 +17271,7 @@
         <v>2116</v>
       </c>
       <c r="B2116">
-        <v>40.80457378385777</v>
+        <v>40.80457378385776</v>
       </c>
     </row>
     <row r="2117" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>39.61236079858342</v>
+        <v>39.61236079858341</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>35.10785893435854</v>
+        <v>35.10785893435853</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>40.57802987097255</v>
+        <v>40.57802987097254</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>41.47951638589485</v>
+        <v>41.47951638589484</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17743,7 +17743,7 @@
         <v>2175</v>
       </c>
       <c r="B2175">
-        <v>2.309774915580888</v>
+        <v>2.309774915580887</v>
       </c>
     </row>
     <row r="2176" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>33.84179204734153</v>
+        <v>33.84179204734152</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18647,7 +18647,7 @@
         <v>2288</v>
       </c>
       <c r="B2288">
-        <v>7.03906812787979</v>
+        <v>7.039068127879789</v>
       </c>
     </row>
     <row r="2289" spans="1:2">
@@ -19039,7 +19039,7 @@
         <v>2337</v>
       </c>
       <c r="B2337">
-        <v>7.533889269555606</v>
+        <v>7.533889269555605</v>
       </c>
     </row>
     <row r="2338" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>0.8067102717296057</v>
+        <v>0.8067102717296056</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19199,7 +19199,7 @@
         <v>2357</v>
       </c>
       <c r="B2357">
-        <v>42.17262939232893</v>
+        <v>42.17262939232892</v>
       </c>
     </row>
     <row r="2358" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>28.90348643169013</v>
+        <v>28.90348643169012</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19335,7 +19335,7 @@
         <v>2374</v>
       </c>
       <c r="B2374">
-        <v>49.58879202565427</v>
+        <v>49.58879202565426</v>
       </c>
     </row>
     <row r="2375" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>58.16463675896256</v>
+        <v>58.16463675896255</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>61.72632909181389</v>
+        <v>61.72632909181388</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19391,7 +19391,7 @@
         <v>2381</v>
       </c>
       <c r="B2381">
-        <v>61.56572616262747</v>
+        <v>61.56572616262746</v>
       </c>
     </row>
     <row r="2382" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>63.5322328320451</v>
+        <v>63.53223283204509</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>52.37853524267162</v>
+        <v>52.37853524267161</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>0.9494153525849746</v>
+        <v>0.9494153525849744</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19495,7 +19495,7 @@
         <v>2394</v>
       </c>
       <c r="B2394">
-        <v>7.879625173864395</v>
+        <v>7.879625173864394</v>
       </c>
     </row>
     <row r="2395" spans="1:2">
@@ -19535,7 +19535,7 @@
         <v>2399</v>
       </c>
       <c r="B2399">
-        <v>46.77384469931205</v>
+        <v>46.77384469931204</v>
       </c>
     </row>
     <row r="2400" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>42.92171896714733</v>
+        <v>42.92171896714732</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>1.348768603416857</v>
+        <v>1.348768603416856</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>23.47692446562893</v>
+        <v>23.47692446562892</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19943,7 +19943,7 @@
         <v>2450</v>
       </c>
       <c r="B2450">
-        <v>6.403279816607868</v>
+        <v>6.403279816607867</v>
       </c>
     </row>
     <row r="2451" spans="1:2">
@@ -20103,7 +20103,7 @@
         <v>2470</v>
       </c>
       <c r="B2470">
-        <v>24.23196338253215</v>
+        <v>24.23196338253214</v>
       </c>
     </row>
     <row r="2471" spans="1:2">
@@ -20151,7 +20151,7 @@
         <v>2476</v>
       </c>
       <c r="B2476">
-        <v>39.86469496287084</v>
+        <v>39.86469496287083</v>
       </c>
     </row>
     <row r="2477" spans="1:2">
@@ -20167,7 +20167,7 @@
         <v>2478</v>
       </c>
       <c r="B2478">
-        <v>47.81307460240518</v>
+        <v>47.81307460240517</v>
       </c>
     </row>
     <row r="2479" spans="1:2">
@@ -20319,7 +20319,7 @@
         <v>2497</v>
       </c>
       <c r="B2497">
-        <v>37.78799358291654</v>
+        <v>37.78799358291653</v>
       </c>
     </row>
     <row r="2498" spans="1:2">
@@ -20359,7 +20359,7 @@
         <v>2502</v>
       </c>
       <c r="B2502">
-        <v>73.06436836450536</v>
+        <v>73.06436836450534</v>
       </c>
     </row>
     <row r="2503" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>7.246327966421093</v>
+        <v>7.246327966421092</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20727,7 +20727,7 @@
         <v>2548</v>
       </c>
       <c r="B2548">
-        <v>11.841242246073</v>
+        <v>11.84124224607299</v>
       </c>
     </row>
     <row r="2549" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>0.5896472069450803</v>
+        <v>0.5896472069450802</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>0.5150166669499687</v>
+        <v>0.5150166669499686</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21239,7 +21239,7 @@
         <v>2612</v>
       </c>
       <c r="B2612">
-        <v>7.664657567006298</v>
+        <v>7.664657567006297</v>
       </c>
     </row>
     <row r="2613" spans="1:2">
@@ -21247,7 +21247,7 @@
         <v>2613</v>
       </c>
       <c r="B2613">
-        <v>11.11650687456736</v>
+        <v>11.11650687456735</v>
       </c>
     </row>
     <row r="2614" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>0.6320721705016966</v>
+        <v>0.6320721705016965</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>19.20078355472897</v>
+        <v>19.20078355472896</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21687,7 +21687,7 @@
         <v>2668</v>
       </c>
       <c r="B2668">
-        <v>38.62617675348799</v>
+        <v>38.62617675348798</v>
       </c>
     </row>
     <row r="2669" spans="1:2">
@@ -21855,7 +21855,7 @@
         <v>2689</v>
       </c>
       <c r="B2689">
-        <v>25.24812859488263</v>
+        <v>25.24812859488262</v>
       </c>
     </row>
     <row r="2690" spans="1:2">
@@ -22127,7 +22127,7 @@
         <v>2723</v>
       </c>
       <c r="B2723">
-        <v>0.1247269310597273</v>
+        <v>0.1247269310597272</v>
       </c>
     </row>
     <row r="2724" spans="1:2">
@@ -22279,7 +22279,7 @@
         <v>2742</v>
       </c>
       <c r="B2742">
-        <v>20.76270565527461</v>
+        <v>20.7627056552746</v>
       </c>
     </row>
     <row r="2743" spans="1:2">
@@ -22631,7 +22631,7 @@
         <v>2786</v>
       </c>
       <c r="B2786">
-        <v>20.02906092419366</v>
+        <v>20.02906092419365</v>
       </c>
     </row>
     <row r="2787" spans="1:2">
@@ -22799,7 +22799,7 @@
         <v>2807</v>
       </c>
       <c r="B2807">
-        <v>20.86876806416615</v>
+        <v>20.86876806416614</v>
       </c>
     </row>
     <row r="2808" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>6.510338667030857</v>
+        <v>6.510338667030856</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -22975,7 +22975,7 @@
         <v>2829</v>
       </c>
       <c r="B2829">
-        <v>10.94256921312185</v>
+        <v>10.94256921312184</v>
       </c>
     </row>
     <row r="2830" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>34.95780656256393</v>
+        <v>34.95780656256392</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23047,7 +23047,7 @@
         <v>2838</v>
       </c>
       <c r="B2838">
-        <v>49.19168076826815</v>
+        <v>49.19168076826814</v>
       </c>
     </row>
     <row r="2839" spans="1:2">
@@ -23055,7 +23055,7 @@
         <v>2839</v>
       </c>
       <c r="B2839">
-        <v>34.03287436454873</v>
+        <v>34.03287436454872</v>
       </c>
     </row>
     <row r="2840" spans="1:2">
@@ -23087,7 +23087,7 @@
         <v>2843</v>
       </c>
       <c r="B2843">
-        <v>0.9486269914909756</v>
+        <v>0.9486269914909754</v>
       </c>
     </row>
     <row r="2844" spans="1:2">
@@ -23223,7 +23223,7 @@
         <v>2860</v>
       </c>
       <c r="B2860">
-        <v>25.02595144047347</v>
+        <v>25.02595144047346</v>
       </c>
     </row>
     <row r="2861" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>6.501106929313025</v>
+        <v>6.501106929313024</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24399,7 +24399,7 @@
         <v>3007</v>
       </c>
       <c r="B3007">
-        <v>8.431712396494637</v>
+        <v>8.431712396494635</v>
       </c>
     </row>
     <row r="3008" spans="1:2">
@@ -26887,7 +26887,7 @@
         <v>3318</v>
       </c>
       <c r="B3318">
-        <v>29.52163186643464</v>
+        <v>29.52163186643463</v>
       </c>
     </row>
     <row r="3319" spans="1:2">
@@ -27023,7 +27023,7 @@
         <v>3335</v>
       </c>
       <c r="B3335">
-        <v>17.1706218557141</v>
+        <v>17.17062185571409</v>
       </c>
     </row>
     <row r="3336" spans="1:2">
@@ -27111,7 +27111,7 @@
         <v>3346</v>
       </c>
       <c r="B3346">
-        <v>1.488282140661204</v>
+        <v>1.488282140661203</v>
       </c>
     </row>
     <row r="3347" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>0.5678222066959699</v>
+        <v>0.5678222066959698</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27423,7 +27423,7 @@
         <v>3385</v>
       </c>
       <c r="B3385">
-        <v>34.65447803754944</v>
+        <v>34.65447803754943</v>
       </c>
     </row>
     <row r="3386" spans="1:2">
@@ -27431,7 +27431,7 @@
         <v>3386</v>
       </c>
       <c r="B3386">
-        <v>33.12083729223462</v>
+        <v>33.12083729223461</v>
       </c>
     </row>
     <row r="3387" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>37.37534956048137</v>
+        <v>37.37534956048136</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27463,7 +27463,7 @@
         <v>3390</v>
       </c>
       <c r="B3390">
-        <v>30.94449175913547</v>
+        <v>30.94449175913546</v>
       </c>
     </row>
     <row r="3391" spans="1:2">
@@ -27639,7 +27639,7 @@
         <v>3412</v>
       </c>
       <c r="B3412">
-        <v>27.09743615593959</v>
+        <v>27.09743615593958</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -29767,7 +29767,7 @@
         <v>3678</v>
       </c>
       <c r="B3678">
-        <v>19.86951305074643</v>
+        <v>19.86951305074642</v>
       </c>
     </row>
     <row r="3679" spans="1:2">
@@ -47791,7 +47791,7 @@
         <v>5931</v>
       </c>
       <c r="B5931">
-        <v>7.230238366398585</v>
+        <v>7.230238366398584</v>
       </c>
     </row>
     <row r="5932" spans="1:2">
@@ -51583,7 +51583,7 @@
         <v>6405</v>
       </c>
       <c r="B6405">
-        <v>6.497590076849089</v>
+        <v>6.497590076849088</v>
       </c>
     </row>
     <row r="6406" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>9.94486747620703</v>
+        <v>9.944867476207028</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>4.596496863260674</v>
+        <v>4.596496863260673</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -51815,7 +51815,7 @@
         <v>6434</v>
       </c>
       <c r="B6434">
-        <v>5.584703098522864</v>
+        <v>5.584703098522863</v>
       </c>
     </row>
     <row r="6435" spans="1:2">
@@ -51823,7 +51823,7 @@
         <v>6435</v>
       </c>
       <c r="B6435">
-        <v>6.202789919059641</v>
+        <v>6.20278991905964</v>
       </c>
     </row>
     <row r="6436" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>6.648140669409422</v>
+        <v>6.648140669409421</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51999,7 +51999,7 @@
         <v>6457</v>
       </c>
       <c r="B6457">
-        <v>5.504489555241253</v>
+        <v>5.504489555241252</v>
       </c>
     </row>
     <row r="6458" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>6.061558985528739</v>
+        <v>6.061558985528738</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53983,7 +53983,7 @@
         <v>6705</v>
       </c>
       <c r="B6705">
-        <v>4.716450839384763</v>
+        <v>4.716450839384762</v>
       </c>
     </row>
     <row r="6706" spans="1:2">
@@ -53999,7 +53999,7 @@
         <v>6707</v>
       </c>
       <c r="B6707">
-        <v>0.3106816773745055</v>
+        <v>0.3106816773745054</v>
       </c>
     </row>
     <row r="6708" spans="1:2">
@@ -54063,7 +54063,7 @@
         <v>6715</v>
       </c>
       <c r="B6715">
-        <v>6.015693367978239</v>
+        <v>6.015693367978238</v>
       </c>
     </row>
     <row r="6716" spans="1:2">
@@ -54463,7 +54463,7 @@
         <v>6765</v>
       </c>
       <c r="B6765">
-        <v>20.71897945630634</v>
+        <v>20.71897945630633</v>
       </c>
     </row>
     <row r="6766" spans="1:2">
@@ -54911,7 +54911,7 @@
         <v>6821</v>
       </c>
       <c r="B6821">
-        <v>2.138630221133822</v>
+        <v>2.138630221133821</v>
       </c>
     </row>
     <row r="6822" spans="1:2">
@@ -55487,7 +55487,7 @@
         <v>6893</v>
       </c>
       <c r="B6893">
-        <v>4.459837837932889</v>
+        <v>4.459837837932888</v>
       </c>
     </row>
     <row r="6894" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>4.052791472336146</v>
+        <v>4.052791472336145</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>7.876870306100978</v>
+        <v>7.876870306100977</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55815,7 +55815,7 @@
         <v>6934</v>
       </c>
       <c r="B6934">
-        <v>6.631201163374795</v>
+        <v>6.631201163374794</v>
       </c>
     </row>
     <row r="6935" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>26.25676188153952</v>
+        <v>26.25676188153951</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -56263,7 +56263,7 @@
         <v>6990</v>
       </c>
       <c r="B6990">
-        <v>39.83656014315935</v>
+        <v>39.83656014315934</v>
       </c>
     </row>
     <row r="6991" spans="1:2">
@@ -56623,7 +56623,7 @@
         <v>7035</v>
       </c>
       <c r="B7035">
-        <v>8.626135723542573</v>
+        <v>8.626135723542571</v>
       </c>
     </row>
     <row r="7036" spans="1:2">
@@ -57607,7 +57607,7 @@
         <v>7158</v>
       </c>
       <c r="B7158">
-        <v>6.7870563417349</v>
+        <v>6.787056341734899</v>
       </c>
     </row>
     <row r="7159" spans="1:2">
@@ -57711,7 +57711,7 @@
         <v>7171</v>
       </c>
       <c r="B7171">
-        <v>5.464045751905988</v>
+        <v>5.464045751905987</v>
       </c>
     </row>
     <row r="7172" spans="1:2">
@@ -57783,7 +57783,7 @@
         <v>7180</v>
       </c>
       <c r="B7180">
-        <v>28.44324767257635</v>
+        <v>28.44324767257634</v>
       </c>
     </row>
     <row r="7181" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>22.24977741254614</v>
+        <v>22.24977741254613</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>25.10789410288318</v>
+        <v>25.10789410288317</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -57943,7 +57943,7 @@
         <v>7200</v>
       </c>
       <c r="B7200">
-        <v>29.60046797583454</v>
+        <v>29.60046797583453</v>
       </c>
     </row>
     <row r="7201" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>64.6467819920742</v>
+        <v>64.64678199207418</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58143,7 +58143,7 @@
         <v>7225</v>
       </c>
       <c r="B7225">
-        <v>45.69094721145838</v>
+        <v>45.69094721145837</v>
       </c>
     </row>
     <row r="7226" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>49.71862249578125</v>
+        <v>49.71862249578124</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58327,7 +58327,7 @@
         <v>7248</v>
       </c>
       <c r="B7248">
-        <v>25.71821454089543</v>
+        <v>25.71821454089542</v>
       </c>
     </row>
     <row r="7249" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>32.33863069004749</v>
+        <v>32.33863069004748</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58527,7 +58527,7 @@
         <v>7273</v>
       </c>
       <c r="B7273">
-        <v>30.70505272054915</v>
+        <v>30.70505272054914</v>
       </c>
     </row>
     <row r="7274" spans="1:2">
@@ -58703,7 +58703,7 @@
         <v>7295</v>
       </c>
       <c r="B7295">
-        <v>20.42661178813778</v>
+        <v>20.42661178813777</v>
       </c>
     </row>
     <row r="7296" spans="1:2">
@@ -59127,7 +59127,7 @@
         <v>7348</v>
       </c>
       <c r="B7348">
-        <v>35.92054492456645</v>
+        <v>35.92054492456644</v>
       </c>
     </row>
     <row r="7349" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>51.48701314306381</v>
+        <v>51.4870131430638</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59263,7 +59263,7 @@
         <v>7365</v>
       </c>
       <c r="B7365">
-        <v>6.206306771523577</v>
+        <v>6.206306771523576</v>
       </c>
     </row>
     <row r="7366" spans="1:2">
@@ -59327,7 +59327,7 @@
         <v>7373</v>
       </c>
       <c r="B7373">
-        <v>17.93873174094162</v>
+        <v>17.93873174094161</v>
       </c>
     </row>
     <row r="7374" spans="1:2">
@@ -59471,7 +59471,7 @@
         <v>7391</v>
       </c>
       <c r="B7391">
-        <v>6.730171253130732</v>
+        <v>6.730171253130731</v>
       </c>
     </row>
     <row r="7392" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>38.86825343142226</v>
+        <v>38.86825343142225</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59687,7 +59687,7 @@
         <v>7418</v>
       </c>
       <c r="B7418">
-        <v>41.93319035374261</v>
+        <v>41.9331903537426</v>
       </c>
     </row>
     <row r="7419" spans="1:2">
@@ -59823,7 +59823,7 @@
         <v>7435</v>
       </c>
       <c r="B7435">
-        <v>34.63425613588181</v>
+        <v>34.6342561358818</v>
       </c>
     </row>
     <row r="7436" spans="1:2">
@@ -60103,7 +60103,7 @@
         <v>7470</v>
       </c>
       <c r="B7470">
-        <v>33.15395431960335</v>
+        <v>33.15395431960334</v>
       </c>
     </row>
     <row r="7471" spans="1:2">
@@ -60247,7 +60247,7 @@
         <v>7488</v>
       </c>
       <c r="B7488">
-        <v>12.90913449674721</v>
+        <v>12.9091344967472</v>
       </c>
     </row>
     <row r="7489" spans="1:2">
@@ -60319,7 +60319,7 @@
         <v>7497</v>
       </c>
       <c r="B7497">
-        <v>6.914395708033254</v>
+        <v>6.914395708033253</v>
       </c>
     </row>
     <row r="7498" spans="1:2">
@@ -60407,7 +60407,7 @@
         <v>7508</v>
       </c>
       <c r="B7508">
-        <v>4.180218759946099</v>
+        <v>4.180218759946098</v>
       </c>
     </row>
     <row r="7509" spans="1:2">
@@ -61063,7 +61063,7 @@
         <v>7590</v>
       </c>
       <c r="B7590">
-        <v>52.46293970180609</v>
+        <v>52.46293970180608</v>
       </c>
     </row>
     <row r="7591" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>56.53926477854674</v>
+        <v>56.53926477854673</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>19.06356769442773</v>
+        <v>19.06356769442772</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>0.2536254352837602</v>
+        <v>0.2536254352837601</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>27.27852475072843</v>
+        <v>27.27852475072842</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61271,7 +61271,7 @@
         <v>7616</v>
       </c>
       <c r="B7616">
-        <v>28.07327479337027</v>
+        <v>28.07327479337026</v>
       </c>
     </row>
     <row r="7617" spans="1:2">
@@ -61295,7 +61295,7 @@
         <v>7619</v>
       </c>
       <c r="B7619">
-        <v>22.74703104384285</v>
+        <v>22.74703104384284</v>
       </c>
     </row>
     <row r="7620" spans="1:2">
@@ -61407,7 +61407,7 @@
         <v>7633</v>
       </c>
       <c r="B7633">
-        <v>46.84740553001605</v>
+        <v>46.84740553001604</v>
       </c>
     </row>
     <row r="7634" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>41.03903061478685</v>
+        <v>41.03903061478684</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>17.38564807677993</v>
+        <v>17.38564807677992</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>18.21779398395495</v>
+        <v>18.21779398395494</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>43.41349217002107</v>
+        <v>43.41349217002106</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>64.10899663613063</v>
+        <v>64.10899663613061</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61687,7 +61687,7 @@
         <v>7668</v>
       </c>
       <c r="B7668">
-        <v>16.77166425078441</v>
+        <v>16.7716642507844</v>
       </c>
     </row>
     <row r="7669" spans="1:2">
@@ -61791,7 +61791,7 @@
         <v>7681</v>
       </c>
       <c r="B7681">
-        <v>32.57044988162861</v>
+        <v>32.5704498816286</v>
       </c>
     </row>
     <row r="7682" spans="1:2">
@@ -61839,7 +61839,7 @@
         <v>7687</v>
       </c>
       <c r="B7687">
-        <v>53.60943360504927</v>
+        <v>53.60943360504926</v>
       </c>
     </row>
     <row r="7688" spans="1:2">
@@ -61935,7 +61935,7 @@
         <v>7699</v>
       </c>
       <c r="B7699">
-        <v>38.95236481951807</v>
+        <v>38.95236481951806</v>
       </c>
     </row>
     <row r="7700" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>49.38247001443669</v>
+        <v>49.38247001443668</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>66.63438977627544</v>
+        <v>66.63438977627543</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>86.35074390221745</v>
+        <v>86.35074390221743</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62047,7 +62047,7 @@
         <v>7713</v>
       </c>
       <c r="B7713">
-        <v>48.68173716099741</v>
+        <v>48.6817371609974</v>
       </c>
     </row>
     <row r="7714" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>31.89873106101681</v>
+        <v>31.8987310610168</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62127,7 +62127,7 @@
         <v>7723</v>
       </c>
       <c r="B7723">
-        <v>39.27093303854295</v>
+        <v>39.27093303854294</v>
       </c>
     </row>
     <row r="7724" spans="1:2">
@@ -62135,7 +62135,7 @@
         <v>7724</v>
       </c>
       <c r="B7724">
-        <v>40.01972954232269</v>
+        <v>40.01972954232268</v>
       </c>
     </row>
     <row r="7725" spans="1:2">
@@ -62143,7 +62143,7 @@
         <v>7725</v>
       </c>
       <c r="B7725">
-        <v>40.80984906255368</v>
+        <v>40.80984906255367</v>
       </c>
     </row>
     <row r="7726" spans="1:2">
@@ -62279,7 +62279,7 @@
         <v>7742</v>
       </c>
       <c r="B7742">
-        <v>44.24405549358732</v>
+        <v>44.24405549358731</v>
       </c>
     </row>
     <row r="7743" spans="1:2">
@@ -62343,7 +62343,7 @@
         <v>7750</v>
       </c>
       <c r="B7750">
-        <v>63.77167187063142</v>
+        <v>63.77167187063141</v>
       </c>
     </row>
     <row r="7751" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>62.10790758415096</v>
+        <v>62.10790758415095</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>41.43409037490234</v>
+        <v>41.43409037490233</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62599,7 +62599,7 @@
         <v>7782</v>
       </c>
       <c r="B7782">
-        <v>63.10962439429544</v>
+        <v>63.10962439429543</v>
       </c>
     </row>
     <row r="7783" spans="1:2">
@@ -62623,7 +62623,7 @@
         <v>7785</v>
       </c>
       <c r="B7785">
-        <v>57.31355846269001</v>
+        <v>57.31355846269</v>
       </c>
     </row>
     <row r="7786" spans="1:2">
@@ -62631,7 +62631,7 @@
         <v>7786</v>
       </c>
       <c r="B7786">
-        <v>56.84230023252257</v>
+        <v>56.84230023252256</v>
       </c>
     </row>
     <row r="7787" spans="1:2">
@@ -62687,7 +62687,7 @@
         <v>7793</v>
       </c>
       <c r="B7793">
-        <v>51.03363224625471</v>
+        <v>51.0336322462547</v>
       </c>
     </row>
     <row r="7794" spans="1:2">
@@ -62735,7 +62735,7 @@
         <v>7799</v>
       </c>
       <c r="B7799">
-        <v>68.24452206268087</v>
+        <v>68.24452206268086</v>
       </c>
     </row>
     <row r="7800" spans="1:2">
@@ -62967,7 +62967,7 @@
         <v>7828</v>
       </c>
       <c r="B7828">
-        <v>88.12851282273716</v>
+        <v>88.12851282273715</v>
       </c>
     </row>
     <row r="7829" spans="1:2">
@@ -62991,7 +62991,7 @@
         <v>7831</v>
       </c>
       <c r="B7831">
-        <v>84.29221292666016</v>
+        <v>84.29221292666014</v>
       </c>
     </row>
     <row r="7832" spans="1:2">
@@ -63079,7 +63079,7 @@
         <v>7842</v>
       </c>
       <c r="B7842">
-        <v>70.26729837152148</v>
+        <v>70.26729837152146</v>
       </c>
     </row>
     <row r="7843" spans="1:2">
@@ -63087,7 +63087,7 @@
         <v>7843</v>
       </c>
       <c r="B7843">
-        <v>74.13144001627131</v>
+        <v>74.1314400162713</v>
       </c>
     </row>
     <row r="7844" spans="1:2">
@@ -63095,7 +63095,7 @@
         <v>7844</v>
       </c>
       <c r="B7844">
-        <v>73.76773885729258</v>
+        <v>73.76773885729257</v>
       </c>
     </row>
     <row r="7845" spans="1:2">
@@ -63103,7 +63103,7 @@
         <v>7845</v>
       </c>
       <c r="B7845">
-        <v>74.13144001627131</v>
+        <v>74.1314400162713</v>
       </c>
     </row>
     <row r="7846" spans="1:2">
@@ -63119,7 +63119,7 @@
         <v>7847</v>
       </c>
       <c r="B7847">
-        <v>77.13307359424081</v>
+        <v>77.1330735942408</v>
       </c>
     </row>
     <row r="7848" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>73.71879599383614</v>
+        <v>73.71879599383612</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63167,7 +63167,7 @@
         <v>7853</v>
       </c>
       <c r="B7853">
-        <v>76.30778554937046</v>
+        <v>76.30778554937045</v>
       </c>
     </row>
     <row r="7854" spans="1:2">
@@ -63191,7 +63191,7 @@
         <v>7856</v>
       </c>
       <c r="B7856">
-        <v>101.3633078576449</v>
+        <v>101.3633078576448</v>
       </c>
     </row>
     <row r="7857" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>16.43691851042542</v>
+        <v>16.43691851042541</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63303,7 +63303,7 @@
         <v>7870</v>
       </c>
       <c r="B7870">
-        <v>70.07123384665704</v>
+        <v>70.07123384665702</v>
       </c>
     </row>
     <row r="7871" spans="1:2">
@@ -63311,7 +63311,7 @@
         <v>7871</v>
       </c>
       <c r="B7871">
-        <v>65.58197167644255</v>
+        <v>65.58197167644254</v>
       </c>
     </row>
     <row r="7872" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>39.30639463422097</v>
+        <v>39.30639463422096</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63503,7 +63503,7 @@
         <v>7895</v>
       </c>
       <c r="B7895">
-        <v>33.00888415546599</v>
+        <v>33.00888415546598</v>
       </c>
     </row>
     <row r="7896" spans="1:2">
@@ -63927,7 +63927,7 @@
         <v>7948</v>
       </c>
       <c r="B7948">
-        <v>45.81052019523221</v>
+        <v>45.8105201952322</v>
       </c>
     </row>
     <row r="7949" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>42.5064373053642</v>
+        <v>42.50643730536419</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64119,7 +64119,7 @@
         <v>7972</v>
       </c>
       <c r="B7972">
-        <v>54.81688628433401</v>
+        <v>54.816886284334</v>
       </c>
     </row>
     <row r="7973" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>58.39088760080912</v>
+        <v>58.39088760080911</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>62.91033608800572</v>
+        <v>62.91033608800571</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>3.001369814034704</v>
+        <v>3.001369814034703</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64279,7 +64279,7 @@
         <v>7992</v>
       </c>
       <c r="B7992">
-        <v>48.33562026433836</v>
+        <v>48.33562026433835</v>
       </c>
     </row>
     <row r="7993" spans="1:2">
@@ -64295,7 +64295,7 @@
         <v>7994</v>
       </c>
       <c r="B7994">
-        <v>49.81826664892611</v>
+        <v>49.8182666489261</v>
       </c>
     </row>
     <row r="7995" spans="1:2">
@@ -64327,7 +64327,7 @@
         <v>7998</v>
       </c>
       <c r="B7998">
-        <v>46.19561554003322</v>
+        <v>46.19561554003321</v>
       </c>
     </row>
     <row r="7999" spans="1:2">
@@ -64479,7 +64479,7 @@
         <v>8017</v>
       </c>
       <c r="B8017">
-        <v>29.91522627135683</v>
+        <v>29.91522627135682</v>
       </c>
     </row>
     <row r="8018" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>25.16644969640772</v>
+        <v>25.16644969640771</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64823,7 +64823,7 @@
         <v>8060</v>
       </c>
       <c r="B8060">
-        <v>22.0887641839056</v>
+        <v>22.08876418390559</v>
       </c>
     </row>
     <row r="8061" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>31.71526859081481</v>
+        <v>31.7152685908148</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>38.57283782445163</v>
+        <v>38.57283782445162</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65063,7 +65063,7 @@
         <v>8090</v>
       </c>
       <c r="B8090">
-        <v>8.494224449041102</v>
+        <v>8.4942244490411</v>
       </c>
     </row>
     <row r="8091" spans="1:2">
@@ -65071,7 +65071,7 @@
         <v>8091</v>
       </c>
       <c r="B8091">
-        <v>3.90021868960905</v>
+        <v>3.900218689609049</v>
       </c>
     </row>
     <row r="8092" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>4.14200229650466</v>
+        <v>4.142002296504659</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65103,7 +65103,7 @@
         <v>8095</v>
       </c>
       <c r="B8095">
-        <v>4.428303394172928</v>
+        <v>4.428303394172927</v>
       </c>
     </row>
     <row r="8096" spans="1:2">
@@ -65247,7 +65247,7 @@
         <v>8113</v>
       </c>
       <c r="B8113">
-        <v>1.967394674664771</v>
+        <v>1.96739467466477</v>
       </c>
     </row>
     <row r="8114" spans="1:2">
@@ -65471,7 +65471,7 @@
         <v>8141</v>
       </c>
       <c r="B8141">
-        <v>4.502479674058114</v>
+        <v>4.502479674058113</v>
       </c>
     </row>
     <row r="8142" spans="1:2">
@@ -65999,7 +65999,7 @@
         <v>8207</v>
       </c>
       <c r="B8207">
-        <v>16.94750687398122</v>
+        <v>16.94750687398121</v>
       </c>
     </row>
     <row r="8208" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>51.74403644396981</v>
+        <v>51.7440364439698</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>24.71632188812776</v>
+        <v>24.71632188812775</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>54.79900895097567</v>
+        <v>54.79900895097566</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>43.71125234530099</v>
+        <v>43.71125234530098</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66279,7 +66279,7 @@
         <v>8242</v>
       </c>
       <c r="B8242">
-        <v>24.62154271422468</v>
+        <v>24.62154271422467</v>
       </c>
     </row>
     <row r="8243" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>6.256158155199873</v>
+        <v>6.256158155199872</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>3.356952905242514</v>
+        <v>3.356952905242513</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66399,7 +66399,7 @@
         <v>8257</v>
       </c>
       <c r="B8257">
-        <v>31.08838963911819</v>
+        <v>31.08838963911818</v>
       </c>
     </row>
     <row r="8258" spans="1:2">
@@ -66495,7 +66495,7 @@
         <v>8269</v>
       </c>
       <c r="B8269">
-        <v>1.199765425940656</v>
+        <v>1.199765425940655</v>
       </c>
     </row>
     <row r="8270" spans="1:2">
@@ -66527,7 +66527,7 @@
         <v>8273</v>
       </c>
       <c r="B8273">
-        <v>22.1033884287348</v>
+        <v>22.10338842873479</v>
       </c>
     </row>
     <row r="8274" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>46.96727158482854</v>
+        <v>46.96727158482853</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66631,7 +66631,7 @@
         <v>8286</v>
       </c>
       <c r="B8286">
-        <v>54.12611784620922</v>
+        <v>54.12611784620921</v>
       </c>
     </row>
     <row r="8287" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>58.37857861718534</v>
+        <v>58.37857861718533</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>39.68093942163017</v>
+        <v>39.68093942163016</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>47.21726118080667</v>
+        <v>47.21726118080666</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>38.44300735432465</v>
+        <v>38.44300735432464</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>45.88202952866558</v>
+        <v>45.88202952866557</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -66991,7 +66991,7 @@
         <v>8331</v>
       </c>
       <c r="B8331">
-        <v>47.78025064607511</v>
+        <v>47.7802506460751</v>
       </c>
     </row>
     <row r="8332" spans="1:2">
@@ -67151,7 +67151,7 @@
         <v>8351</v>
       </c>
       <c r="B8351">
-        <v>60.13143649941885</v>
+        <v>60.13143649941884</v>
       </c>
     </row>
     <row r="8352" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>5.099846372161535</v>
+        <v>5.099846372161534</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>45.71908203116987</v>
+        <v>45.71908203116986</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67407,7 +67407,7 @@
         <v>8383</v>
       </c>
       <c r="B8383">
-        <v>76.16007774588515</v>
+        <v>76.16007774588513</v>
       </c>
     </row>
     <row r="8384" spans="1:2">
@@ -67455,7 +67455,7 @@
         <v>8389</v>
       </c>
       <c r="B8389">
-        <v>7.809874266662995</v>
+        <v>7.809874266662994</v>
       </c>
     </row>
     <row r="8390" spans="1:2">
@@ -67495,7 +67495,7 @@
         <v>8394</v>
       </c>
       <c r="B8394">
-        <v>31.52799619711021</v>
+        <v>31.5279961971102</v>
       </c>
     </row>
     <row r="8395" spans="1:2">
@@ -67551,7 +67551,7 @@
         <v>8401</v>
       </c>
       <c r="B8401">
-        <v>37.90522199838108</v>
+        <v>37.90522199838107</v>
       </c>
     </row>
     <row r="8402" spans="1:2">
@@ -67631,7 +67631,7 @@
         <v>8411</v>
       </c>
       <c r="B8411">
-        <v>7.680366174678546</v>
+        <v>7.680366174678545</v>
       </c>
     </row>
     <row r="8412" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>43.01608784159628</v>
+        <v>43.01608784159627</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>45.81315783458016</v>
+        <v>45.81315783458015</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67751,7 +67751,7 @@
         <v>8426</v>
       </c>
       <c r="B8426">
-        <v>49.55567499828554</v>
+        <v>49.55567499828553</v>
       </c>
     </row>
     <row r="8427" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>29.31911977871965</v>
+        <v>29.31911977871964</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67847,7 +67847,7 @@
         <v>8438</v>
       </c>
       <c r="B8438">
-        <v>8.168094997218757</v>
+        <v>8.168094997218756</v>
       </c>
     </row>
     <row r="8439" spans="1:2">
@@ -67999,7 +67999,7 @@
         <v>8457</v>
       </c>
       <c r="B8457">
-        <v>43.48998371111168</v>
+        <v>43.48998371111167</v>
       </c>
     </row>
     <row r="8458" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>27.69216521469506</v>
+        <v>27.69216521469505</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68407,7 +68407,7 @@
         <v>8508</v>
       </c>
       <c r="B8508">
-        <v>23.04707717322433</v>
+        <v>23.04707717322432</v>
       </c>
     </row>
     <row r="8509" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>12.62898789089083</v>
+        <v>12.62898789089082</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68663,7 +68663,7 @@
         <v>8540</v>
       </c>
       <c r="B8540">
-        <v>60.75245403034224</v>
+        <v>60.75245403034223</v>
       </c>
     </row>
     <row r="8541" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>71.71917229704978</v>
+        <v>71.71917229704977</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>72.52394536921383</v>
+        <v>72.52394536921382</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -68991,7 +68991,7 @@
         <v>8581</v>
       </c>
       <c r="B8581">
-        <v>65.12038479055093</v>
+        <v>65.12038479055091</v>
       </c>
     </row>
     <row r="8582" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>61.06369547340059</v>
+        <v>61.06369547340058</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>65.3223107361886</v>
+        <v>65.32231073618858</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69375,7 +69375,7 @@
         <v>8629</v>
       </c>
       <c r="B8629">
-        <v>68.78172127654712</v>
+        <v>68.7817212765471</v>
       </c>
     </row>
     <row r="8630" spans="1:2">
@@ -69415,7 +69415,7 @@
         <v>8634</v>
       </c>
       <c r="B8634">
-        <v>73.32139166541135</v>
+        <v>73.32139166541134</v>
       </c>
     </row>
     <row r="8635" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>72.19277509552651</v>
+        <v>72.1927750955265</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69455,7 +69455,7 @@
         <v>8639</v>
       </c>
       <c r="B8639">
-        <v>71.44163402343749</v>
+        <v>71.44163402343747</v>
       </c>
     </row>
     <row r="8640" spans="1:2">
@@ -69487,7 +69487,7 @@
         <v>8643</v>
       </c>
       <c r="B8643">
-        <v>81.03824518440324</v>
+        <v>81.03824518440322</v>
       </c>
     </row>
     <row r="8644" spans="1:2">
@@ -69495,7 +69495,7 @@
         <v>8644</v>
       </c>
       <c r="B8644">
-        <v>82.99478743850638</v>
+        <v>82.99478743850636</v>
       </c>
     </row>
     <row r="8645" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>54.00654486243539</v>
+        <v>54.00654486243538</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -70231,7 +70231,7 @@
         <v>8736</v>
       </c>
       <c r="B8736">
-        <v>71.56091393617265</v>
+        <v>71.56091393617264</v>
       </c>
     </row>
     <row r="8737" spans="1:2">
@@ -70247,7 +70247,7 @@
         <v>8738</v>
       </c>
       <c r="B8738">
-        <v>74.38113654121078</v>
+        <v>74.38113654121076</v>
       </c>
     </row>
     <row r="8739" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>71.25025863519163</v>
+        <v>71.25025863519161</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70391,7 +70391,7 @@
         <v>8756</v>
       </c>
       <c r="B8756">
-        <v>77.66822131083643</v>
+        <v>77.66822131083642</v>
       </c>
     </row>
     <row r="8757" spans="1:2">
